--- a/SIH-prep.xlsx
+++ b/SIH-prep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sih\SIH25_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C118AD-618C-4377-A5C9-28C1E175E98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC123529-6C78-4652-9B20-B38E6E7CF73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BC7A00D2-6470-4CFF-968A-2EF1D21BA82F}"/>
   </bookViews>
@@ -177,10 +177,10 @@
     <t>Test workflow (Project)</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>Notes &amp; Books : https://github.com/sanjaykn8/SIH25_prep</t>
+  </si>
+  <si>
+    <t>flutter-front end</t>
   </si>
 </sst>
 </file>
@@ -290,22 +290,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6076285B-72CE-473C-904E-80789D64BDE4}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -641,15 +641,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
@@ -702,13 +702,13 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -723,11 +723,11 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -742,11 +742,11 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -761,11 +761,11 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -780,11 +780,11 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -796,12 +796,12 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -813,79 +813,79 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -910,17 +910,22 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="A11:G12"/>
@@ -930,11 +935,6 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SIH-prep.xlsx
+++ b/SIH-prep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sih\SIH25_prep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sih\SIH25_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC123529-6C78-4652-9B20-B38E6E7CF73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886779D-FC64-4754-8D42-891B471E4339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BC7A00D2-6470-4CFF-968A-2EF1D21BA82F}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Jayavelan</t>
   </si>
   <si>
-    <t>Nandagopal</t>
-  </si>
-  <si>
     <t>Sukil Raj</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>flutter-front end</t>
+  </si>
+  <si>
+    <t>Deepan</t>
   </si>
 </sst>
 </file>
@@ -293,16 +293,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6076285B-72CE-473C-904E-80789D64BDE4}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -641,31 +641,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -694,19 +694,19 @@
         <v>45845</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -715,17 +715,17 @@
         <v>45846</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -734,17 +734,17 @@
         <v>45847</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -753,17 +753,17 @@
         <v>45848</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -772,17 +772,17 @@
         <v>45849</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9"/>
     </row>
@@ -791,13 +791,13 @@
         <v>45850</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -808,10 +808,10 @@
         <v>45851</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -819,53 +819,53 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
     </row>
@@ -874,58 +874,53 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="A11:G12"/>
@@ -935,6 +930,11 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
